--- a/sampleData/disease_list.xlsx
+++ b/sampleData/disease_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Major_project\application\sampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4C004-4004-4BC2-AF6A-B93BF8120C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491C96BB-C8AB-423F-9613-000E5B48809F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
